--- a/Chassis/V2/Perimetre.xlsx
+++ b/Chassis/V2/Perimetre.xlsx
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1321,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1339,7 +1339,8 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2">
-        <v>60</v>
+        <f>F3</f>
+        <v>50</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1359,7 +1360,7 @@
       <c r="D5" s="1"/>
       <c r="F5" s="3">
         <f>SQRT(E4^2+F3^2)</f>
-        <v>84.852813742385706</v>
+        <v>70.710678118654755</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1382,7 +1383,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="3">
         <f>SQRT(H7^2+J11^2)</f>
-        <v>172.04650534085255</v>
+        <v>205.9732992404598</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1401,7 +1402,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1">
         <f>(I16-K14)/2</f>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1475,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="2">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1514,7 +1515,7 @@
       </c>
       <c r="E13" s="1">
         <f>I16-2*E4</f>
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>1</v>
@@ -1541,13 +1542,14 @@
       <c r="F14" s="1"/>
       <c r="G14" s="4">
         <f>E13+2*F5+2*G24+2*I6+K14</f>
-        <v>1153.7986381664764</v>
+        <v>1175.3679547182292</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="2">
-        <v>70</v>
+        <f>I16-(2*139)</f>
+        <v>72</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1583,8 +1585,8 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
-        <f>1200-50</f>
-        <v>1150</v>
+        <f>1200-20</f>
+        <v>1180</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="2">
@@ -1683,7 +1685,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1">
         <f>H7</f>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1736,7 +1738,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1">
         <f>H26-F3</f>
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1775,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="2">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
